--- a/vt_REGION1_IND-PP.xlsx
+++ b/vt_REGION1_IND-PP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C291F5B3-7CED-4A75-A4F6-80F171523E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2866867-46F4-48C9-803A-031888877EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="16" activeTab="25" xr2:uid="{EADC4856-49BE-4DD1-AE06-BDD1A06F7643}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="742" firstSheet="22" activeTab="25" xr2:uid="{EADC4856-49BE-4DD1-AE06-BDD1A06F7643}"/>
   </bookViews>
   <sheets>
     <sheet name="ChangeLog" sheetId="2" r:id="rId1"/>
@@ -9645,7 +9645,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>896620</xdr:colOff>
+      <xdr:colOff>887095</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>172085</xdr:rowOff>
     </xdr:to>
@@ -56159,7 +56159,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -58589,14 +58589,14 @@
   </sheetPr>
   <dimension ref="A1:BC72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Y28" sqref="Y28"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" customWidth="1"/>
@@ -60734,12 +60734,8 @@
         <f>'ITEMS_Comm_BASE_JM '!B20</f>
         <v>IPPPAP</v>
       </c>
-      <c r="H42" s="129">
-        <v>0</v>
-      </c>
-      <c r="I42" s="129">
-        <v>0</v>
-      </c>
+      <c r="H42" s="129"/>
+      <c r="I42" s="129"/>
       <c r="N42" s="2"/>
       <c r="P42" s="120">
         <f>INDEX('Capital costs'!$C$3:$C$26,MATCH(B38,'Capital costs'!$B$3:$B$26,0))</f>
@@ -60854,12 +60850,8 @@
         <f>'ITEMS_Comm_BASE_JM '!B17</f>
         <v>IPPPULP</v>
       </c>
-      <c r="H46" s="129">
-        <v>0</v>
-      </c>
-      <c r="I46" s="129">
-        <v>0</v>
-      </c>
+      <c r="H46" s="129"/>
+      <c r="I46" s="129"/>
       <c r="N46" s="2"/>
       <c r="P46" s="120">
         <f>INDEX('Capital costs'!$C$3:$C$26,MATCH(B43,'Capital costs'!$B$3:$B$26,0))</f>
@@ -60964,15 +60956,11 @@
     </row>
     <row r="50" spans="2:36" x14ac:dyDescent="0.25">
       <c r="E50" t="str">
-        <f>'ITEMS_Comm_BASE_JM '!B17</f>
-        <v>IPPPULP</v>
-      </c>
-      <c r="H50" s="129">
-        <v>0</v>
-      </c>
-      <c r="I50" s="129">
-        <v>0</v>
-      </c>
+        <f>E21</f>
+        <v>IPPPULPD</v>
+      </c>
+      <c r="H50" s="129"/>
+      <c r="I50" s="129"/>
       <c r="N50" s="2"/>
       <c r="P50" s="120">
         <f>INDEX('Capital costs'!$C$3:$C$26,MATCH(B47,'Capital costs'!$B$3:$B$26,0))</f>
@@ -61104,12 +61092,8 @@
         <f>'ITEMS_Comm_BASE_JM '!B17</f>
         <v>IPPPULP</v>
       </c>
-      <c r="H55" s="129">
-        <v>0</v>
-      </c>
-      <c r="I55" s="129">
-        <v>0</v>
-      </c>
+      <c r="H55" s="129"/>
+      <c r="I55" s="129"/>
       <c r="N55" s="2"/>
       <c r="P55" s="120">
         <f>INDEX('Capital costs'!$C$3:$C$26,MATCH(B52,'Capital costs'!$B$3:$B$26,0))</f>
@@ -61226,12 +61210,8 @@
         <f>'ITEMS_Comm_BASE_JM '!B17</f>
         <v>IPPPULP</v>
       </c>
-      <c r="H59" s="129">
-        <v>0</v>
-      </c>
-      <c r="I59" s="129">
-        <v>0</v>
-      </c>
+      <c r="H59" s="129"/>
+      <c r="I59" s="129"/>
       <c r="N59" s="2"/>
       <c r="P59" s="120"/>
       <c r="S59" s="120">
@@ -61268,12 +61248,8 @@
         <f>G31</f>
         <v>0.33025099075297226</v>
       </c>
-      <c r="H60" s="129">
-        <v>0</v>
-      </c>
-      <c r="I60" s="129">
-        <v>0</v>
-      </c>
+      <c r="H60" s="129"/>
+      <c r="I60" s="129"/>
       <c r="N60" s="2"/>
       <c r="P60" s="120">
         <f>INDEX('Capital costs'!$C$3:$C$26,MATCH(B60,'Capital costs'!$B$3:$B$26,0))</f>
@@ -61324,12 +61300,8 @@
         <f>G32</f>
         <v>0.55391979116996026</v>
       </c>
-      <c r="H61" s="129">
-        <v>0</v>
-      </c>
-      <c r="I61" s="129">
-        <v>0</v>
-      </c>
+      <c r="H61" s="129"/>
+      <c r="I61" s="129"/>
       <c r="N61" s="2"/>
       <c r="P61">
         <f>INDEX('Capital costs'!$C$3:$C$26,MATCH(B61,'Capital costs'!$B$3:$B$26,0))</f>
@@ -61380,12 +61352,8 @@
         <f>G33</f>
         <v>0.60401065424431821</v>
       </c>
-      <c r="H62" s="129">
-        <v>0</v>
-      </c>
-      <c r="I62" s="129">
-        <v>0</v>
-      </c>
+      <c r="H62" s="129"/>
+      <c r="I62" s="129"/>
       <c r="N62" s="2"/>
       <c r="P62">
         <f>INDEX('Capital costs'!$C$3:$C$26,MATCH(B63,'Capital costs'!$B$3:$B$26,0))</f>
@@ -61436,12 +61404,8 @@
         <f>G34</f>
         <v>0.65516342057274379</v>
       </c>
-      <c r="H63" s="129">
-        <v>0</v>
-      </c>
-      <c r="I63" s="129">
-        <v>0</v>
-      </c>
+      <c r="H63" s="129"/>
+      <c r="I63" s="129"/>
       <c r="N63" s="2"/>
       <c r="P63">
         <f>INDEX('Capital costs'!$C$3:$C$26,MATCH(B63,'Capital costs'!$B$3:$B$26,0))</f>

--- a/vt_REGION1_IND-PP.xlsx
+++ b/vt_REGION1_IND-PP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2866867-46F4-48C9-803A-031888877EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{731DBF1D-B773-4FAC-B030-9795DB90DA93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="742" firstSheet="22" activeTab="25" xr2:uid="{EADC4856-49BE-4DD1-AE06-BDD1A06F7643}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="742" firstSheet="17" activeTab="25" xr2:uid="{EADC4856-49BE-4DD1-AE06-BDD1A06F7643}"/>
   </bookViews>
   <sheets>
     <sheet name="ChangeLog" sheetId="2" r:id="rId1"/>
@@ -9645,9 +9645,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>887095</xdr:colOff>
+      <xdr:colOff>896620</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>172085</xdr:rowOff>
+      <xdr:rowOff>168275</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9698,9 +9698,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>626534</xdr:colOff>
+      <xdr:colOff>630344</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>172085</xdr:rowOff>
+      <xdr:rowOff>168275</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9751,9 +9751,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>629920</xdr:colOff>
+      <xdr:colOff>626110</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>172085</xdr:rowOff>
+      <xdr:rowOff>168275</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9804,7 +9804,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>248336</xdr:colOff>
+      <xdr:colOff>244526</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>35489</xdr:rowOff>
     </xdr:to>
@@ -9857,9 +9857,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>248336</xdr:colOff>
+      <xdr:colOff>244526</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>133985</xdr:rowOff>
+      <xdr:rowOff>130175</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9910,9 +9910,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>248336</xdr:colOff>
+      <xdr:colOff>244526</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>172085</xdr:rowOff>
+      <xdr:rowOff>168275</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9963,9 +9963,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>248336</xdr:colOff>
+      <xdr:colOff>244526</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>55245</xdr:rowOff>
+      <xdr:rowOff>59055</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10996,10 +10996,10 @@
       <xdr:rowOff>37215</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>114826</xdr:colOff>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>567265</xdr:colOff>
       <xdr:row>293</xdr:row>
-      <xdr:rowOff>57800</xdr:rowOff>
+      <xdr:rowOff>53990</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11040,10 +11040,10 @@
       <xdr:rowOff>112940</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>73831</xdr:colOff>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>526269</xdr:colOff>
       <xdr:row>235</xdr:row>
-      <xdr:rowOff>136242</xdr:rowOff>
+      <xdr:rowOff>132432</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11085,7 +11085,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
-      <xdr:colOff>568613</xdr:colOff>
+      <xdr:colOff>413832</xdr:colOff>
       <xdr:row>264</xdr:row>
       <xdr:rowOff>111419</xdr:rowOff>
     </xdr:to>
@@ -34676,8 +34676,8 @@
   </sheetPr>
   <dimension ref="A1:AD326"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView topLeftCell="M1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <selection activeCell="AA24" sqref="AA24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34691,7 +34691,7 @@
     <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="56.7109375" customWidth="1"/>
+    <col min="14" max="14" width="25.28515625" customWidth="1"/>
     <col min="15" max="19" width="11.85546875" customWidth="1"/>
     <col min="20" max="20" width="12" customWidth="1"/>
     <col min="21" max="21" width="13.28515625" customWidth="1"/>
@@ -34701,7 +34701,7 @@
     <col min="25" max="25" width="11.85546875" customWidth="1"/>
     <col min="26" max="26" width="14.28515625" customWidth="1"/>
     <col min="27" max="27" width="12.85546875" customWidth="1"/>
-    <col min="28" max="28" width="11.140625" customWidth="1"/>
+    <col min="28" max="28" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
@@ -42842,8 +42842,8 @@
   </sheetPr>
   <dimension ref="A1:AN2790"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="V44" sqref="V44"/>
+    <sheetView topLeftCell="K1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="Q8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -58589,8 +58589,8 @@
   </sheetPr>
   <dimension ref="A1:BC72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="X31" sqref="X31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -60180,6 +60180,7 @@
         <f>INDEX(EB_Exist!$R$8:$AB$18,MATCH($B$28,EB_Exist!$N$8:$N$18,0),MATCH($E$30,EB_Exist!$R$4:$AB$4,0))</f>
         <v>0.20838948746881503</v>
       </c>
+      <c r="Y28" s="143"/>
       <c r="AB28">
         <v>1</v>
       </c>
@@ -61036,7 +61037,7 @@
       <c r="AG52" s="129"/>
       <c r="AH52" s="129"/>
       <c r="AI52">
-        <v>2012</v>
+        <v>2025</v>
       </c>
       <c r="AJ52" s="129">
         <v>25</v>
@@ -61273,7 +61274,7 @@
       <c r="AG60" s="129"/>
       <c r="AH60" s="129"/>
       <c r="AI60" s="57">
-        <v>2031</v>
+        <v>2020</v>
       </c>
       <c r="AJ60" s="129">
         <v>40</v>
@@ -61325,7 +61326,7 @@
       <c r="AG61" s="129"/>
       <c r="AH61" s="129"/>
       <c r="AI61" s="57">
-        <v>2031</v>
+        <v>2020</v>
       </c>
       <c r="AJ61" s="129">
         <v>40</v>
@@ -61377,7 +61378,7 @@
       <c r="AG62" s="129"/>
       <c r="AH62" s="129"/>
       <c r="AI62" s="57">
-        <v>2031</v>
+        <v>2020</v>
       </c>
       <c r="AJ62" s="129">
         <v>40</v>
@@ -61429,7 +61430,7 @@
       <c r="AG63" s="129"/>
       <c r="AH63" s="129"/>
       <c r="AI63" s="57">
-        <v>2031</v>
+        <v>2020</v>
       </c>
       <c r="AJ63" s="129">
         <v>40</v>

--- a/vt_REGION1_IND-PP.xlsx
+++ b/vt_REGION1_IND-PP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA59659-D9E0-4F6E-AC22-A04C45EE2BD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F20BF75A-B55D-474C-BFC3-B42D958F8B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="742" firstSheet="19" activeTab="25" xr2:uid="{EADC4856-49BE-4DD1-AE06-BDD1A06F7643}"/>
   </bookViews>
@@ -58610,7 +58610,7 @@
   <dimension ref="A1:BE72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="O15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AW64" sqref="AW64"/>
+      <selection activeCell="AA60" sqref="AA60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/vt_REGION1_IND-PP.xlsx
+++ b/vt_REGION1_IND-PP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B240B1ED-DD32-4997-B2F9-9FD4AB37328A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0489D109-AC93-4EDA-A5C7-05C1DBDAB256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="742" firstSheet="13" activeTab="25" xr2:uid="{EADC4856-49BE-4DD1-AE06-BDD1A06F7643}"/>
   </bookViews>
@@ -6235,6 +6235,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -58731,8 +58732,8 @@
   </sheetPr>
   <dimension ref="A1:BE72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -60965,9 +60966,7 @@
         <f>'ITEMS_Comm_BASE_JM '!B15</f>
         <v>IPPREC</v>
       </c>
-      <c r="H43" s="129">
-        <v>0</v>
-      </c>
+      <c r="H43" s="129"/>
       <c r="I43" s="129"/>
       <c r="N43" s="2"/>
       <c r="S43" s="120"/>
@@ -61079,9 +61078,7 @@
         <f>'ITEMS_Comm_BASE_JM '!B9</f>
         <v>IPPELC</v>
       </c>
-      <c r="H47" s="129">
-        <v>0</v>
-      </c>
+      <c r="H47" s="129"/>
       <c r="I47" s="129"/>
       <c r="N47" s="2"/>
       <c r="T47" s="129"/>
@@ -61213,9 +61210,7 @@
         <f>'ITEMS_Comm_BASE_JM '!B9</f>
         <v>IPPELC</v>
       </c>
-      <c r="H52" s="129">
-        <v>0</v>
-      </c>
+      <c r="H52" s="129"/>
       <c r="I52" s="129"/>
       <c r="N52" s="2"/>
       <c r="T52" s="129"/>
@@ -61348,9 +61343,7 @@
         <f>'ITEMS_Comm_BASE_JM '!B9</f>
         <v>IPPELC</v>
       </c>
-      <c r="H57" s="129">
-        <v>0</v>
-      </c>
+      <c r="H57" s="129"/>
       <c r="I57" s="129"/>
       <c r="N57" s="2"/>
       <c r="P57" s="120">
@@ -61447,9 +61440,7 @@
         <f>G31</f>
         <v>0.33025099075297226</v>
       </c>
-      <c r="H60" s="129">
-        <v>0</v>
-      </c>
+      <c r="H60" s="129"/>
       <c r="I60" s="129"/>
       <c r="N60" s="2"/>
       <c r="O60">
@@ -61517,9 +61508,7 @@
         <f>G32</f>
         <v>0.55391979116996026</v>
       </c>
-      <c r="H61" s="129">
-        <v>0</v>
-      </c>
+      <c r="H61" s="129"/>
       <c r="I61" s="129"/>
       <c r="N61" s="2"/>
       <c r="O61">
@@ -61587,9 +61576,7 @@
         <f>G33</f>
         <v>0.60401065424431821</v>
       </c>
-      <c r="H62" s="129">
-        <v>0</v>
-      </c>
+      <c r="H62" s="129"/>
       <c r="I62" s="129"/>
       <c r="N62" s="2"/>
       <c r="O62">
@@ -61645,9 +61632,7 @@
         <f>G34</f>
         <v>0.65516342057274379</v>
       </c>
-      <c r="H63" s="129">
-        <v>0</v>
-      </c>
+      <c r="H63" s="129"/>
       <c r="I63" s="129"/>
       <c r="N63" s="2"/>
       <c r="O63">
